--- a/resources/Keypoints.xlsx
+++ b/resources/Keypoints.xlsx
@@ -1,23 +1,88 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pol\Documents\GitHub\PythonPoser\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pol Zeimet\Documents\GitHub\PythonPoser\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AB1CA6-A6BB-4036-BDAC-C9A848553EE5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE3504-BD47-4B1B-BFB7-D768EAAC08F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{963346EA-92C4-403D-9195-C6D4AAE84EF5}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" xr2:uid="{963346EA-92C4-403D-9195-C6D4AAE84EF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Tabelle1!$B$3:$B$29</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Tabelle1!$E$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Tabelle1!$Q$3:$Q$29</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Tabelle1!$T$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Tabelle1!$T$3:$T$29</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Tabelle1!$B$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Tabelle1!$D$3:$D$29</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Tabelle1!$E$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Tabelle1!$G$3:$G$29</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Tabelle1!$H$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Tabelle1!$J$3:$J$29</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Tabelle1!$K$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Tabelle1!$E$3:$E$29</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Tabelle1!$M$3:$M$29</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Tabelle1!$N$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Tabelle1!$P$3:$P$29</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Tabelle1!$Q$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Tabelle1!$S$3:$S$29</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Tabelle1!$T$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">Tabelle1!$V$3:$V$29</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">Tabelle1!$B$3:$B$29</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">Tabelle1!$E$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">Tabelle1!$E$3:$E$29</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Tabelle1!$H$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">Tabelle1!$H$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">Tabelle1!$H$3:$H$29</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">Tabelle1!$K$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">Tabelle1!$K$3:$K$29</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">Tabelle1!$N$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">Tabelle1!$N$3:$N$29</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">Tabelle1!$Q$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">Tabelle1!$Q$3:$Q$29</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">Tabelle1!$T$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">Tabelle1!$T$3:$T$29</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Tabelle1!$H$3:$H$29</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">Tabelle1!$B$3:$B$29</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">Tabelle1!$E$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">Tabelle1!$E$3:$E$29</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">Tabelle1!$H$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">Tabelle1!$H$3:$H$29</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">Tabelle1!$K$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">Tabelle1!$K$3:$K$29</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">Tabelle1!$N$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">Tabelle1!$N$3:$N$29</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">Tabelle1!$Q$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Tabelle1!$K$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">Tabelle1!$Q$3:$Q$29</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">Tabelle1!$T$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">Tabelle1!$T$3:$T$29</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">Tabelle1!$B$3:$B$29</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">Tabelle1!$E$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">Tabelle1!$E$3:$E$29</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">Tabelle1!$H$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">Tabelle1!$H$3:$H$29</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">Tabelle1!$K$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">Tabelle1!$K$3:$K$29</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Tabelle1!$K$3:$K$29</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">Tabelle1!$N$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">Tabelle1!$N$3:$N$29</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">Tabelle1!$Q$1</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">Tabelle1!$Q$3:$Q$29</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">Tabelle1!$T$1</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">Tabelle1!$T$3:$T$29</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Tabelle1!$N$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Tabelle1!$N$3:$N$29</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Tabelle1!$Q$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +91,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,27 +98,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
   <si>
     <t>Frame</t>
-  </si>
-  <si>
-    <t>Keypoint 9</t>
-  </si>
-  <si>
-    <t>Keypoint 10</t>
-  </si>
-  <si>
-    <t>KeyPoint 11</t>
-  </si>
-  <si>
-    <t>Keypoint 12</t>
-  </si>
-  <si>
-    <t>Keypoint 13</t>
-  </si>
-  <si>
-    <t>Keypoint 14</t>
   </si>
   <si>
     <t>x</t>
@@ -66,7 +112,25 @@
     <t>z</t>
   </si>
   <si>
-    <t>Keypoint 8</t>
+    <t>HüfteR</t>
+  </si>
+  <si>
+    <t>HüfteMitte</t>
+  </si>
+  <si>
+    <t>HüfteL</t>
+  </si>
+  <si>
+    <t>KnieR</t>
+  </si>
+  <si>
+    <t>FußR</t>
+  </si>
+  <si>
+    <t>KnieL</t>
+  </si>
+  <si>
+    <t>FußL</t>
   </si>
 </sst>
 </file>
@@ -106,7 +170,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -124,7 +188,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -197,25 +261,240 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.0470054879503705E-2"/>
-          <c:y val="4.7496570644718787E-2"/>
+          <c:x val="8.0470096186039217E-2"/>
+          <c:y val="5.737786976232713E-2"/>
           <c:w val="0.88897440944881889"/>
           <c:h val="0.81944444444444442"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HüfteR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$B$3:$B$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$B$3:$B$4,Tabelle1!$B$6:$B$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>-9.3098642674785306E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.1983785138638793E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.3925757055225004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-9.6982488871803704E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-9.7519044136347405E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.2514322767323798E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.9009239552770995E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-9.8332785117351995E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.11020355445868001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.10891933732747699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.10359970697828801</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.10310077543941E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.2968361765065701E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.3569882742880399E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-8.6145282355226796E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.3646624774843701E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-9.4527071981122202E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-9.8250109108912506E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-9.5521990150793698E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.10243118740587299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.104779925391897</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.106102871008129</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.104993554041643</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-9.9484177529501103E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.3766904342980198E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.5602454631097594E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD5E-4E57-9CAD-6FC7C491A470}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 8</c:v>
+                  <c:v>HüfteMitte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -232,30 +511,109 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$T$3:$T$29</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$T$3:$T$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$T$3:$T$4,Tabelle1!$T$6:$T$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -332,9 +690,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -348,121 +703,209 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>Keypoint 9</c:v>
+            <c:strRef>
+              <c:f>Tabelle1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HüfteL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$B$3:$B$29</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$K$3:$K$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$K$3:$K$4,Tabelle1!$K$6:$K$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
-                  <c:v>-9.3098642674785306E-2</c:v>
+                  <c:v>0.11131818017839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-9.1983785138638793E-2</c:v>
+                  <c:v>0.11339286879796601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-9.5726809103407001E-2</c:v>
+                  <c:v>0.111495688545896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.3925757055225004E-2</c:v>
+                  <c:v>0.10700455242170601</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-9.6982488871803704E-2</c:v>
+                  <c:v>0.108372155582451</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-9.7519044136347405E-2</c:v>
+                  <c:v>0.114528498778093</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.2514322767323798E-2</c:v>
+                  <c:v>0.118900289869923</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-9.9009239552770995E-2</c:v>
+                  <c:v>0.12010349973444601</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-9.8332785117351995E-2</c:v>
+                  <c:v>0.10463859464892</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.11020355445868001</c:v>
+                  <c:v>0.103310290972251</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.10891933732747699</c:v>
+                  <c:v>9.5101811343069206E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.10359970697828801</c:v>
+                  <c:v>8.7028263071256703E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-9.10310077543941E-2</c:v>
+                  <c:v>7.5517478845542801E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-7.2968361765065701E-2</c:v>
+                  <c:v>6.1581197905424503E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-7.3569882742880399E-2</c:v>
+                  <c:v>8.3916892061627904E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-8.6145282355226796E-2</c:v>
+                  <c:v>0.10290321723089201</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9.3646624774843701E-2</c:v>
+                  <c:v>0.11916326960073</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-9.4527071981122202E-2</c:v>
+                  <c:v>0.116004605392535</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-9.8250109108912506E-2</c:v>
+                  <c:v>0.121256449381472</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.5521990150793698E-2</c:v>
+                  <c:v>0.112666859680741</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.10243118740587299</c:v>
+                  <c:v>0.10551256833492199</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.104779925391897</c:v>
+                  <c:v>0.104259094690954</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.106102871008129</c:v>
+                  <c:v>0.10463334076457401</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.104993554041643</c:v>
+                  <c:v>0.107416428506851</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-9.9484177529501103E-2</c:v>
+                  <c:v>0.114286461967208</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-9.3766904342980198E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-9.5602454631097594E-2</c:v>
+                  <c:v>0.114277860899248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -470,20 +913,20 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-AD5E-4E57-9CAD-6FC7C491A470}"/>
+              <c16:uniqueId val="{00000004-AD5E-4E57-9CAD-6FC7C491A470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 10</c:v>
+                  <c:v>KnieR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -498,26 +941,109 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$E$3:$E$29</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$E$3:$E$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$E$3:$E$4,Tabelle1!$E$6:$E$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>-9.5559844970094204E-2</c:v>
                 </c:pt>
@@ -525,78 +1051,75 @@
                   <c:v>-9.7191529104458801E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.104944311118015</c:v>
+                  <c:v>-9.54568550777848E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-9.54568550777848E-2</c:v>
+                  <c:v>-0.109167633073738</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.109167633073738</c:v>
+                  <c:v>-0.108009901372803</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.108009901372803</c:v>
+                  <c:v>-9.96580726447924E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-9.96580726447924E-2</c:v>
+                  <c:v>-0.123947522854122</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.123947522854122</c:v>
+                  <c:v>-0.14474408978633799</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.14474408978633799</c:v>
+                  <c:v>-0.16569835566593699</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.16569835566593699</c:v>
+                  <c:v>-0.16961398121117199</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.16961398121117199</c:v>
+                  <c:v>-0.188719478890365</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.188719478890365</c:v>
+                  <c:v>-0.19646904143173499</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.19646904143173499</c:v>
+                  <c:v>-0.155927309146243</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.155927309146243</c:v>
+                  <c:v>-0.158629027991675</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.158629027991675</c:v>
+                  <c:v>-0.176200133447491</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.176200133447491</c:v>
+                  <c:v>-0.14942833016637699</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.14942833016637699</c:v>
+                  <c:v>-0.16150809672420599</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.16150809672420599</c:v>
+                  <c:v>-0.154974338949113</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.154974338949113</c:v>
+                  <c:v>-0.13624050639877699</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.13624050639877699</c:v>
+                  <c:v>-0.110980904837872</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.110980904837872</c:v>
+                  <c:v>-0.112447407654704</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.112447407654704</c:v>
+                  <c:v>-0.110241127753513</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.110241127753513</c:v>
+                  <c:v>-0.110995749136862</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.110995749136862</c:v>
+                  <c:v>-0.103124633781358</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.103124633781358</c:v>
+                  <c:v>-0.101578961190573</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.101578961190573</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>-0.10194487166516999</c:v>
                 </c:pt>
               </c:numCache>
@@ -610,15 +1133,230 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>KnieL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$N$3:$N$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$N$3:$N$4,Tabelle1!$N$6:$N$29)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0.12220516926832201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.131827768767907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12748408825348601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11953600775373401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.119207504647363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.131544131821274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13182478612916701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13460982935597701</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10644757399726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.1603389646462604E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.6335530357187504E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.6381890652118204E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.125395827085028</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.124291127391097</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.3935008706701999E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.101905911825439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6783757820474506E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.102002528509371</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.121933869108098</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.11404545852868</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.105146502271459</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.105796126976368</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.109069395770619</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.113741155930304</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.112895049920512</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.112712891028588</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-AD5E-4E57-9CAD-6FC7C491A470}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="3"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>KeyPoint 11</c:v>
+                  <c:v>FußR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -633,26 +1371,109 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$H$3:$H$29</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$H$3:$H$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$H$3:$H$4,Tabelle1!$H$6:$H$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>-7.7149537582602595E-2</c:v>
                 </c:pt>
@@ -660,78 +1481,75 @@
                   <c:v>-6.9444616120232894E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-8.7646098904968994E-2</c:v>
+                  <c:v>-7.7778679460895603E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-7.7778679460895603E-2</c:v>
+                  <c:v>-8.9459860379017403E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-8.9459860379017403E-2</c:v>
+                  <c:v>-8.9209990522365695E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.9209990522365695E-2</c:v>
+                  <c:v>-7.68688224398444E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-7.68688224398444E-2</c:v>
+                  <c:v>-8.6510940639990597E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.6510940639990597E-2</c:v>
+                  <c:v>-8.7601242627552603E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-8.7601242627552603E-2</c:v>
+                  <c:v>-0.114278864879593</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.114278864879593</c:v>
+                  <c:v>-0.123940765340951</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.123940765340951</c:v>
+                  <c:v>-0.121366869747109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.121366869747109</c:v>
+                  <c:v>-0.132863341039163</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.132863341039163</c:v>
+                  <c:v>-0.124677210461903</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.124677210461903</c:v>
+                  <c:v>-0.118965076922338</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.118965076922338</c:v>
+                  <c:v>-0.145081769878637</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.145081769878637</c:v>
+                  <c:v>-9.6824241744312201E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-9.6824241744312201E-2</c:v>
+                  <c:v>-0.124054827721249</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.124054827721249</c:v>
+                  <c:v>-0.111256193922846</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.111256193922846</c:v>
+                  <c:v>-9.1923565092124099E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-9.1923565092124099E-2</c:v>
+                  <c:v>-9.55813947465705E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-9.55813947465705E-2</c:v>
+                  <c:v>-0.101163356378451</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.101163356378451</c:v>
+                  <c:v>-0.100451476818401</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.100451476818401</c:v>
+                  <c:v>-0.102511308264951</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.102511308264951</c:v>
+                  <c:v>-8.8551581873246396E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-8.8551581873246396E-2</c:v>
+                  <c:v>-8.4174812091570503E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-8.4174812091570503E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>-8.3481705532582606E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -741,276 +1559,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-AD5E-4E57-9CAD-6FC7C491A470}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Keypoint 12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$K$3:$K$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0.11131818017839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11339286879796601</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.10773522562562</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.111495688545896</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.10700455242170601</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.108372155582451</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.114528498778093</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.118900289869923</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12010349973444601</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10463859464892</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.103310290972251</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.5101811343069206E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.7028263071256703E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.5517478845542801E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.1581197905424503E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.3916892061627904E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.10290321723089201</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.11916326960073</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.116004605392535</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.121256449381472</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.112666859680741</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.10551256833492199</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.104259094690954</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.10463334076457401</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.107416428506851</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.114286461967208</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.114277860899248</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-AD5E-4E57-9CAD-6FC7C491A470}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Keypoint 13</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$N$3:$N$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0.12220516926832201</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.131827768767907</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.114072548916182</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12748408825348601</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.11953600775373401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.119207504647363</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.131544131821274</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13182478612916701</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.13460982935597701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.10644757399726</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.1603389646462604E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.6335530357187504E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.6381890652118204E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.125395827085028</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.124291127391097</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.3935008706701999E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.101905911825439</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.6783757820474506E-2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.102002528509371</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.121933869108098</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.11404545852868</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.105146502271459</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.105796126976368</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.109069395770619</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.113741155930304</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.112895049920512</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.112712891028588</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-AD5E-4E57-9CAD-6FC7C491A470}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1023,7 +1571,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 14</c:v>
+                  <c:v>FußL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1038,26 +1586,109 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="26"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>14</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="14">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="15">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="16">
+                <c:v>18</c:v>
+              </c:pt>
+              <c:pt idx="17">
+                <c:v>19</c:v>
+              </c:pt>
+              <c:pt idx="18">
+                <c:v>20</c:v>
+              </c:pt>
+              <c:pt idx="19">
+                <c:v>21</c:v>
+              </c:pt>
+              <c:pt idx="20">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="21">
+                <c:v>23</c:v>
+              </c:pt>
+              <c:pt idx="22">
+                <c:v>24</c:v>
+              </c:pt>
+              <c:pt idx="23">
+                <c:v>25</c:v>
+              </c:pt>
+              <c:pt idx="24">
+                <c:v>26</c:v>
+              </c:pt>
+              <c:pt idx="25">
+                <c:v>27</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$Q$3:$Q$29</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Tabelle1!$Q$3:$Q$29</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Tabelle1!$Q$3:$Q$4,Tabelle1!$Q$6:$Q$29)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
+                <c:ptCount val="26"/>
                 <c:pt idx="0">
                   <c:v>0.13607289288656599</c:v>
                 </c:pt>
@@ -1065,78 +1696,75 @@
                   <c:v>0.145059738309679</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.12273813449342599</c:v>
+                  <c:v>0.13645996435619701</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13645996435619701</c:v>
+                  <c:v>0.123615484129332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.123615484129332</c:v>
+                  <c:v>0.124486077949823</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.124486077949823</c:v>
+                  <c:v>0.135609591559745</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.135609591559745</c:v>
+                  <c:v>0.12450912215879301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.12450912215879301</c:v>
+                  <c:v>0.124425382495646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.124425382495646</c:v>
+                  <c:v>9.4531658416502601E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.4531658416502601E-2</c:v>
+                  <c:v>8.7712365542492204E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7712365542492204E-2</c:v>
+                  <c:v>8.9731662271387E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.9731662271387E-2</c:v>
+                  <c:v>7.8660872366288298E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.8660872366288298E-2</c:v>
+                  <c:v>8.7618937347899203E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.7618937347899203E-2</c:v>
+                  <c:v>8.5433143449734003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.5433143449734003E-2</c:v>
+                  <c:v>6.3197482670826796E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.3197482670826796E-2</c:v>
+                  <c:v>0.115302733619034</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.115302733619034</c:v>
+                  <c:v>8.9207338576967193E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.9207338576967193E-2</c:v>
+                  <c:v>0.101661534072887</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.101661534072887</c:v>
+                  <c:v>0.121003206968416</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.121003206968416</c:v>
+                  <c:v>0.119339178712018</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.119339178712018</c:v>
+                  <c:v>0.112688954291997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.112688954291997</c:v>
+                  <c:v>0.112840340000967</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.112840340000967</c:v>
+                  <c:v>0.110352113384501</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.110352113384501</c:v>
+                  <c:v>0.124753671060423</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.124753671060423</c:v>
+                  <c:v>0.130612392182089</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.130612392182089</c:v>
-                </c:pt>
-                <c:pt idx="26">
                   <c:v>0.12909179378416999</c:v>
                 </c:pt>
               </c:numCache>
@@ -1157,7 +1785,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="446050368"/>
         <c:axId val="446044464"/>
@@ -1392,10 +2019,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.1293556538903711"/>
-          <c:y val="0.75698589373859126"/>
-          <c:w val="0.24392258302422945"/>
-          <c:h val="0.24048637438838666"/>
+          <c:x val="6.666738122430238E-2"/>
+          <c:y val="0.72404790804311514"/>
+          <c:w val="0.331075472235628"/>
+          <c:h val="0.27595209195688486"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1474,7 +2101,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1549,18 +2176,141 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HüfteR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$C$3:$C$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>4.5276926898479001E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1718878320027696E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0977191974828396E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.4039500240819303E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2690605951146796E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.6634657007154296E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-4.9345721963396597E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-8.2344183274944802E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.81064894265878E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.9629744415043298E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.6747375424003903E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.7503932260457199E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-2.4807078146893099E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0795676157187699E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.1662384572299397E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.3277861998800098E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.4206738531696698E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-2.4946485420852197E-4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.1668243730511699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6439401474804901E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4811184105238403E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.5223510598908701E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.8159512386625201E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.9714161028868303E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.47062438491012E-4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.3026059665702E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.8583484152056198E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-ADE3-4300-9C2A-A49D3EA46B54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="6"/>
-          <c:order val="0"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$T$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 8</c:v>
+                  <c:v>HüfteMitte</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1577,23 +2327,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -1693,15 +2427,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="1"/>
+          <c:idx val="3"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Tabelle1!$B$1</c:f>
+              <c:f>Tabelle1!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 9</c:v>
+                  <c:v>HüfteL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1709,113 +2443,101 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Tabelle1!$C$3:$C$29</c:f>
+              <c:f>Tabelle1!$L$3:$L$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>4.5276926898479001E-4</c:v>
+                  <c:v>1.11961771273472E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1718878320027696E-3</c:v>
+                  <c:v>8.5256930104506004E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0977191974828396E-3</c:v>
+                  <c:v>2.4660326358115898E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.4039500240819303E-3</c:v>
+                  <c:v>-1.3031698697932499E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2690605951146796E-3</c:v>
+                  <c:v>-3.6288472491243699E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.6634657007154296E-3</c:v>
+                  <c:v>5.81391984128453E-4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-4.9345721963396597E-3</c:v>
+                  <c:v>8.3003668870384496E-4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-8.2344183274944802E-4</c:v>
+                  <c:v>3.0739448285057301E-4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.81064894265878E-4</c:v>
+                  <c:v>-3.2185490999732299E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.9629744415043298E-3</c:v>
+                  <c:v>-1.78750421232343E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.6747375424003903E-3</c:v>
+                  <c:v>-8.4901724408083801E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.7503932260457199E-3</c:v>
+                  <c:v>-2.70103100673078E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-2.4807078146893099E-3</c:v>
+                  <c:v>-8.3127253565479509E-3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0795676157187699E-2</c:v>
+                  <c:v>1.23528339405882E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.1662384572299397E-3</c:v>
+                  <c:v>2.1648566066293201E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3277861998800098E-3</c:v>
+                  <c:v>-1.21988129742044E-3</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.4206738531696698E-3</c:v>
+                  <c:v>-6.2677358768568796E-3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-2.4946485420852197E-4</c:v>
+                  <c:v>-5.0868237990927502E-3</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.1668243730511699E-3</c:v>
+                  <c:v>-1.4730547040345799E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.6439401474804901E-3</c:v>
+                  <c:v>7.8812048217273697E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.4811184105238403E-4</c:v>
+                  <c:v>1.27184315774122E-3</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.5223510598908701E-4</c:v>
+                  <c:v>1.0723263458916399E-3</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6.8159512386625201E-3</c:v>
+                  <c:v>1.0044865524462101E-3</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-3.9714161028868303E-3</c:v>
+                  <c:v>1.1226132959913601E-3</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7.47062438491012E-4</c:v>
+                  <c:v>-1.74575432706538E-4</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-1.3026059665702E-4</c:v>
+                  <c:v>1.30917623381036E-3</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8583484152056198E-4</c:v>
+                  <c:v>1.17276982997221E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1823,20 +2545,266 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-ADE3-4300-9C2A-A49D3EA46B54}"/>
+              <c16:uniqueId val="{00000003-ADE3-4300-9C2A-A49D3EA46B54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FußR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$I$3:$I$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-0.79524844733981104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.78997801218053798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.78562586283944702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.80049613113601403</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.79597145293724003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.80021937665416099</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.80263426527787995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.76961263194125196</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.75907428809977495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.70569247313067696</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.645423592051388</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.54272852718198406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.46962557760710699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.35164503897350002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.32063056141491902</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.431970852457363</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.56069822684290804</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.65134248168487197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.72433264646322604</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.79223470436833598</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.80350877350114003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.80982575441801297</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.80513874965557197</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.82387707300007795</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.81591001944423902</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.81623421834705201</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.80624956424970595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-ADE3-4300-9C2A-A49D3EA46B54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FußL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$R$3:$R$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-0.78368978328372896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.80323473022069103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.789567589155584</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.78953693667620595</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.78763556497629394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.77825578740340395</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.78567736057645499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.77171464668872902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.73835679458196402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.69583167688902703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.64847267128903796</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.53013113328088701</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.44384246134857802</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.325131810213656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.30170979426222699</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.42002987985444901</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.53885852990578398</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.63066852854665401</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.70898925650213396</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.78870183018127604</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.80044485058812598</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.81238783831997696</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.79209765635127205</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.79455275739030096</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.79911350101800405</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.82082397201152901</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.79447529252358795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ADE3-4300-9C2A-A49D3EA46B54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 10</c:v>
+                  <c:v>KnieR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1851,19 +2819,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -1963,285 +2919,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KeyPoint 11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$I$3:$I$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>-0.79524844733981104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.78997801218053798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.78562586283944702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.80049613113601403</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.79597145293724003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.80021937665416099</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.80263426527787995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.76961263194125196</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.75907428809977495</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.70569247313067696</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.645423592051388</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.54272852718198406</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.46962557760710699</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.35164503897350002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.32063056141491902</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.431970852457363</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.56069822684290804</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.65134248168487197</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.72433264646322604</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.79223470436833598</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.80350877350114003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.80982575441801297</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.80513874965557197</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.82387707300007795</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.81591001944423902</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.81623421834705201</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.80624956424970595</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-ADE3-4300-9C2A-A49D3EA46B54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Keypoint 12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$L$3:$L$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>1.11961771273472E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.5256930104506004E-4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.4660326358115898E-4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.3031698697932499E-4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-3.6288472491243699E-4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.81391984128453E-4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.3003668870384496E-4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.0739448285057301E-4</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-3.2185490999732299E-4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.78750421232343E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-8.4901724408083801E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.70103100673078E-3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-8.3127253565479509E-3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.23528339405882E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.1648566066293201E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.21988129742044E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-6.2677358768568796E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-5.0868237990927502E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.4730547040345799E-4</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.8812048217273697E-4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.27184315774122E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.0723263458916399E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.0044865524462101E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.1226132959913601E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-1.74575432706538E-4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.30917623381036E-3</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.17276982997221E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-ADE3-4300-9C2A-A49D3EA46B54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 13</c:v>
+                  <c:v>KnieL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2256,19 +2942,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -2364,141 +3038,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-ADE3-4300-9C2A-A49D3EA46B54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Keypoint 14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$R$3:$R$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>-0.78368978328372896</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.80323473022069103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.789567589155584</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.78953693667620595</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.78763556497629394</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.77825578740340395</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.78567736057645499</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.77171464668872902</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.73835679458196402</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.69583167688902703</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.64847267128903796</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-0.53013113328088701</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.44384246134857802</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.325131810213656</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-0.30170979426222699</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-0.42002987985444901</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-0.53885852990578398</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.63066852854665401</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-0.70898925650213396</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-0.78870183018127604</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-0.80044485058812598</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.81238783831997696</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.79209765635127205</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.79455275739030096</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.79911350101800405</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.82082397201152901</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.79447529252358795</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-ADE3-4300-9C2A-A49D3EA46B54}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2510,7 +3049,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="853412992"/>
         <c:axId val="853418568"/>
@@ -2745,10 +3283,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.37200029414426644"/>
-          <c:y val="0.65850893132285593"/>
-          <c:w val="0.19516924608561861"/>
-          <c:h val="0.21972276238749511"/>
+          <c:x val="0.81482542400809765"/>
+          <c:y val="0.41207578867816619"/>
+          <c:w val="0.18208999799912903"/>
+          <c:h val="0.43552473012857829"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2827,7 +3365,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2912,7 +3450,7 @@
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2923,7 +3461,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 9</c:v>
+                  <c:v>HüfteR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2938,19 +3476,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -3050,15 +3576,384 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HüfteL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$M$3:$M$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-8.9618052014809393E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.5721500022572696E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8926724994038701E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.9615204318407703E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7889107679070699E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.67833526910095E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-5.6750663036409597E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-6.1739685386808497E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8.4582730503107106E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9.4597425804435101E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.17422022148814301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.97897199149476E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-6.4891497758387803E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.130766400704E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.11639844209612001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-8.8819221895110999E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7.2585224764019199E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.11194488984588701</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.0939265263422E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-6.4718055338068597E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-7.0705480832434595E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-4.8800435762642903E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-5.77687098148272E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-4.7757705128033102E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.9589346934525194E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6.6731152495280902E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-6.6730568948097299E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4D50-4AA6-9FBD-352A1F2ED156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FußR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$J$3:$J$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-0.10476290748159001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-9.47710006824347E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.7761852053007398E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-8.6665840458010998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-7.7767607088016902E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-9.5815132381976004E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6.6914571559245697E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.96062477521671E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9320873460435602E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.8457760016352998E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.8553028904476295E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-9.1036797530196596E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.104491450506843</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.106665049197394</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.7197672048207703E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-2.9670696428391E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.0785968803952101E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.102829834085801</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.113563792588652</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.0990873581413299E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2.0585758089827901E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.9392086201287202E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-9.7140868737813094E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-7.8148038321125102E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-6.81488871166952E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-9.7065245184336402E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.7122486687704304E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4D50-4AA6-9FBD-352A1F2ED156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tabelle1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FußL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Tabelle1!$S$3:$S$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="27"/>
+                <c:pt idx="0">
+                  <c:v>-0.13568775201686101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.17625046763198701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-9.6616597854420394E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.137717183605992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-8.7987812909464405E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.126436278141698</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-9.6485464862860096E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.00647777419842E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.99611747356956E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.92603228031342E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0430988000586101E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.0592339934835399E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-9.3979674306046895E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-3.88118030618518E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-4.8556264058031498E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-3.94623576646101E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.95439201859939E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.103746613242302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.3703957063582893E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.1487388531258301E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-8.2023321189334503E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-9.9988978257494698E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.10666990921019801</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-6.7766286428176198E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-9.9194452874973804E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.14856168700762801</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-9.6626907168222906E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-4D50-4AA6-9FBD-352A1F2ED156}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 10</c:v>
+                  <c:v>KnieR</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3073,19 +3968,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -3185,285 +4068,15 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>KeyPoint 11</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$J$3:$J$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>-0.10476290748159001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-9.47710006824347E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-4.7761852053007398E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-8.6665840458010998E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-7.7767607088016902E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-9.5815132381976004E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-6.6914571559245697E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.96062477521671E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9320873460435602E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.8457760016352998E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.8553028904476295E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-9.1036797530196596E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-0.104491450506843</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-0.106665049197394</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-3.7197672048207703E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-2.9670696428391E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.0785968803952101E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.102829834085801</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.113563792588652</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.0990873581413299E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-2.0585758089827901E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-3.9392086201287202E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-9.7140868737813094E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-7.8148038321125102E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-6.81488871166952E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-9.7065245184336402E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-9.7122486687704304E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4D50-4AA6-9FBD-352A1F2ED156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Keypoint 12</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$M$3:$M$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>-8.9618052014809393E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-6.5721500022572696E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.8926724994038701E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.9615204318407703E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7889107679070699E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.67833526910095E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-5.6750663036409597E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-6.1739685386808497E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-8.4582730503107106E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-9.4597425804435101E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.17422022148814301</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-2.97897199149476E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-6.4891497758387803E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.130766400704E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11639844209612001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-8.8819221895110999E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-7.2585224764019199E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-0.11194488984588701</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.0939265263422E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-6.4718055338068597E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-7.0705480832434595E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-4.8800435762642903E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-5.77687098148272E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-4.7757705128033102E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>8.9589346934525194E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-6.6731152495280902E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-6.6730568948097299E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-4D50-4AA6-9FBD-352A1F2ED156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Tabelle1!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Keypoint 13</c:v>
+                  <c:v>KnieL</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3478,19 +4091,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -3586,282 +4187,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-4D50-4AA6-9FBD-352A1F2ED156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Keypoint 14</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$S$3:$S$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>-0.13568775201686101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.17625046763198701</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-9.6616597854420394E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.137717183605992</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-8.7987812909464405E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.126436278141698</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-9.6485464862860096E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.00647777419842E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.99611747356956E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.92603228031342E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2.0430988000586101E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.0592339934835399E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-9.3979674306046895E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-3.88118030618518E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-4.8556264058031498E-2</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-3.94623576646101E-2</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.95439201859939E-2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.103746613242302</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.3703957063582893E-2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.1487388531258301E-2</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-8.2023321189334503E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-9.9988978257494698E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.10666990921019801</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-6.7766286428176198E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-9.9194452874973804E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.14856168700762801</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-9.6626907168222906E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-4D50-4AA6-9FBD-352A1F2ED156}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Tabelle1!$T$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Keypoint 8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Tabelle1!$V$3:$V$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="27"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-4D50-4AA6-9FBD-352A1F2ED156}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3873,10 +4198,71 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="853412664"/>
         <c:axId val="853406432"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="6"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$T$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>HüfteMitte</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Tabelle1!$V$3:$V$29</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="27"/>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-4D50-4AA6-9FBD-352A1F2ED156}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
       </c:lineChart>
       <c:catAx>
         <c:axId val="853412664"/>
@@ -4110,8 +4496,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10643393027199034"/>
           <c:y val="0.10007408348150028"/>
-          <c:w val="0.36627993403479431"/>
-          <c:h val="0.30284215985098639"/>
+          <c:w val="0.10600183004647355"/>
+          <c:h val="0.32640460561385337"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5820,16 +6206,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>162710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>243840</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5857,15 +6243,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>545951</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>134471</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:colOff>484991</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>50651</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5893,15 +6279,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
+      <xdr:colOff>126402</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>143435</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>708660</xdr:colOff>
+      <xdr:colOff>675042</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>82475</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5929,21 +6315,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Tabelle1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6239,110 +6612,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92599A79-6AED-4BFC-B19B-418704AB2FBB}">
-  <dimension ref="A1:V29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P29" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q56" sqref="Q56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="T2" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="U2" t="s">
-        <v>8</v>
-      </c>
-      <c r="V2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>-9.3098642674785306E-2</v>
       </c>
@@ -6403,11 +6773,8 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>-9.1983785138638793E-2</v>
       </c>
@@ -6468,11 +6835,8 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>-9.5726809103407001E-2</v>
       </c>
@@ -6533,11 +6897,8 @@
       <c r="U5">
         <v>0</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>-9.3925757055225004E-2</v>
       </c>
@@ -6598,11 +6959,8 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>-9.6982488871803704E-2</v>
       </c>
@@ -6663,11 +7021,8 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>-9.7519044136347405E-2</v>
       </c>
@@ -6728,11 +7083,8 @@
       <c r="U8">
         <v>0</v>
       </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>-9.2514322767323798E-2</v>
       </c>
@@ -6793,11 +7145,8 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-9.9009239552770995E-2</v>
       </c>
@@ -6858,11 +7207,8 @@
       <c r="U10">
         <v>0</v>
       </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>-9.8332785117351995E-2</v>
       </c>
@@ -6923,11 +7269,8 @@
       <c r="U11">
         <v>0</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>-0.11020355445868001</v>
       </c>
@@ -6988,11 +7331,8 @@
       <c r="U12">
         <v>0</v>
       </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>-0.10891933732747699</v>
       </c>
@@ -7053,11 +7393,8 @@
       <c r="U13">
         <v>0</v>
       </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>-0.10359970697828801</v>
       </c>
@@ -7118,11 +7455,8 @@
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>-9.10310077543941E-2</v>
       </c>
@@ -7183,11 +7517,8 @@
       <c r="U15">
         <v>0</v>
       </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>-7.2968361765065701E-2</v>
       </c>
@@ -7248,11 +7579,8 @@
       <c r="U16">
         <v>0</v>
       </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>-7.3569882742880399E-2</v>
       </c>
@@ -7313,11 +7641,8 @@
       <c r="U17">
         <v>0</v>
       </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>-8.6145282355226796E-2</v>
       </c>
@@ -7378,11 +7703,8 @@
       <c r="U18">
         <v>0</v>
       </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>-9.3646624774843701E-2</v>
       </c>
@@ -7443,11 +7765,8 @@
       <c r="U19">
         <v>0</v>
       </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>-9.4527071981122202E-2</v>
       </c>
@@ -7508,11 +7827,8 @@
       <c r="U20">
         <v>0</v>
       </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>-9.8250109108912506E-2</v>
       </c>
@@ -7573,11 +7889,8 @@
       <c r="U21">
         <v>0</v>
       </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>-9.5521990150793698E-2</v>
       </c>
@@ -7638,11 +7951,8 @@
       <c r="U22">
         <v>0</v>
       </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>-0.10243118740587299</v>
       </c>
@@ -7703,11 +8013,8 @@
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
     </row>
-    <row r="24" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>-0.104779925391897</v>
       </c>
@@ -7768,11 +8075,8 @@
       <c r="U24">
         <v>0</v>
       </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
     </row>
-    <row r="25" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>-0.106102871008129</v>
       </c>
@@ -7833,11 +8137,8 @@
       <c r="U25">
         <v>0</v>
       </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>-0.104993554041643</v>
       </c>
@@ -7898,11 +8199,8 @@
       <c r="U26">
         <v>0</v>
       </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>-9.9484177529501103E-2</v>
       </c>
@@ -7963,11 +8261,8 @@
       <c r="U27">
         <v>0</v>
       </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>-9.3766904342980198E-2</v>
       </c>
@@ -8028,11 +8323,8 @@
       <c r="U28">
         <v>0</v>
       </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>-9.5602454631097594E-2</v>
       </c>
@@ -8091,9 +8383,6 @@
         <v>0</v>
       </c>
       <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
         <v>0</v>
       </c>
     </row>
